--- a/Pandas/new.xlsx
+++ b/Pandas/new.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>n.a.</t>
+          <t>sam walton</t>
         </is>
       </c>
     </row>
